--- a/biology/Botanique/Forêt_de_Bélouve/Forêt_de_Bélouve.xlsx
+++ b/biology/Botanique/Forêt_de_Bélouve/Forêt_de_Bélouve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_B%C3%A9louve</t>
+          <t>Forêt_de_Bélouve</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Bélouve est une forêt des Hauts de l'Est de l'île de La Réunion, département d'outre-mer français dans l'océan Indien. Elle occupe un plateau perché situé en marge du cirque naturel qu'occupe la commune de Salazie, sur le territoire de laquelle elle est néanmoins située. 
 On n'y accède que par la route RF 2 en cul-de-sac qui traverse la forêt de Bébour en provenance de La Plaine-des-Palmistes. De cette route on peut suivre un sentier qui amène à un point de vue pour observer le Trou de Fer. Au nord il y a un accès par un sentier de randonnée escarpé montant de l'îlet d'Hell-Bourg pour arriver au gîte de Bélouve. C'est l'une des forêts de La Réunion qui produit le bois de tamarin des hauts utilisé en ébénisterie.
 C'est une forêt de nuage.
-Le téléphérique forestier Paul Charly, du nom d'un ancien conservateur des Eaux et Forêts, permettait autrefois de rejoindre le cirque de Salazie depuis le gîte de Bélouve. Il fut inauguré le 24 novembre 1954. Il avait une portée de 1 202 mètres par une dénivellation de 805 mètres et utilisait un câble d'une longueur de 1 500 mètres. Il a été achevé le 17 novembre 1953 après un an et dix jours de travaux[1]. En janvier 1980, le cyclone Hyacinthe dévaste La Réunion ; les équipements du téléphérique sont endommagés, ce qui conduit à son arrêt définitif.
+Le téléphérique forestier Paul Charly, du nom d'un ancien conservateur des Eaux et Forêts, permettait autrefois de rejoindre le cirque de Salazie depuis le gîte de Bélouve. Il fut inauguré le 24 novembre 1954. Il avait une portée de 1 202 mètres par une dénivellation de 805 mètres et utilisait un câble d'une longueur de 1 500 mètres. Il a été achevé le 17 novembre 1953 après un an et dix jours de travaux. En janvier 1980, le cyclone Hyacinthe dévaste La Réunion ; les équipements du téléphérique sont endommagés, ce qui conduit à son arrêt définitif.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_B%C3%A9louve</t>
+          <t>Forêt_de_Bélouve</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la forêt viendrait du malgache Belova signifiant « héritage important » ou « riche patrimoine » en français.
 </t>
